--- a/biology/Microbiologie/Serratia/Serratia.xlsx
+++ b/biology/Microbiologie/Serratia/Serratia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Serratia est un genre de bactérie à coloration gram négatif appartenant à la famille des Yersiniaceae. A cause de son aspect volatile, il arrive qu'elle soit à l'origine de suspicion de miracles eucharistiques, sans pour autant toujours les expliquer.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D’une manière générale, les espèces du genre Serratia sont isolées des plantes (légumes, champignons, mousses), du tube digestif des rongeurs, des insectes, de l’eau et du sol.
 </t>
@@ -542,13 +556,15 @@
           <t>Pathogénicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette bactérie est rarement pathogène, mais elle est fréquemment présente dans l’environnement hospitalier et certaines souches sont responsables d'infections nosocomiales (infections urinaires, suppurations diverses, septicémies, endocardites...).
 La plus connue de ces bactéries est Serratia marcescens (anciennement Bacillus prodigiosus) est isolée du sol, de l’eau, des aliments, de l’environnement hospitalier et d’échantillons cliniques. Certaines souches produisent un pigment rouge - brique non diffusible (= prodigiosine). Actuellement la plupart des souches rencontrées en milieu hospitalier ne sont pas pigmentées.
 C’est un pathogène opportuniste pouvant provoquer des infections urinaires, des infections de blessures, des pneumonies, des septicémies et des infections nosocomiales.
 En médecine vétérinaire, Serratia marcescens est un agent de mammites chez la vache laitière.
-En 2010, des norvégiens[1] ont montré qu'une enzyme produite par S. marcescens permet la dissolution de la chitine, en agissant sur la surface de la chitine, et en favorisant ensuite l'action d'autres enzymes (chitinases), plus vite (en 2 heures environ) qu'avec la méthode la plus rapide (48 heures) mise au point 5 ans auparavant[réf. souhaitée]. Ils espèrent découvrir une enzyme faisant de même sur la cellulose, pour développer des agrocarburants de seconde génération[2].
+En 2010, des norvégiens ont montré qu'une enzyme produite par S. marcescens permet la dissolution de la chitine, en agissant sur la surface de la chitine, et en favorisant ensuite l'action d'autres enzymes (chitinases), plus vite (en 2 heures environ) qu'avec la méthode la plus rapide (48 heures) mise au point 5 ans auparavant[réf. souhaitée]. Ils espèrent découvrir une enzyme faisant de même sur la cellulose, pour développer des agrocarburants de seconde génération.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Résistance à des conditions extrêmes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2013, des chercheurs dirigés par l'astrobiologiste Andrew Schuerger ont soumis 36 souches de bactéries, représentant 22 espèces différentes, habituellement trouvées sur des vaisseaux spatiaux, en les incubant dans une chambre qui simule des facteurs biocides omniprésents sur Mars, c'est-à-dire des températures froides et une atmosphère à basse pression principalement composée de dioxyde de carbone[3]. Sur ces 36 souches, seule Serratia liquefacens a pu se multiplier et se développer. Selon Andrew Schuerger, il semblerait que lorsqu'elle est exposée à une basse pression, des gènes spécifiques activent un mécanisme biologique inconnu qui permet à l'organisme de continuer à croître ; son laboratoire a séquencé et publié le génome[4], et encourage la communauté de recherche à étudier ce phénomène[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, des chercheurs dirigés par l'astrobiologiste Andrew Schuerger ont soumis 36 souches de bactéries, représentant 22 espèces différentes, habituellement trouvées sur des vaisseaux spatiaux, en les incubant dans une chambre qui simule des facteurs biocides omniprésents sur Mars, c'est-à-dire des températures froides et une atmosphère à basse pression principalement composée de dioxyde de carbone. Sur ces 36 souches, seule Serratia liquefacens a pu se multiplier et se développer. Selon Andrew Schuerger, il semblerait que lorsqu'elle est exposée à une basse pression, des gènes spécifiques activent un mécanisme biologique inconnu qui permet à l'organisme de continuer à croître ; son laboratoire a séquencé et publié le génome, et encourage la communauté de recherche à étudier ce phénomène.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la LPSN  (24 octobre 2022)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (24 octobre 2022) :
 Serratia aquatilis Kämpfer &amp; Glaeser 2016
 Serratia bockelmannii Cho et al. 2020
 Serratia entomophila Grimont et al. 1988
